--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha2F-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1043,7 +1043,7 @@
         <v>0.9966544266109879</v>
       </c>
       <c r="G15">
-        <v>0.988320972576586</v>
+        <v>0.9883209725765859</v>
       </c>
       <c r="H15">
         <v>1.001258586808111</v>
@@ -1061,7 +1061,7 @@
         <v>0.9936488319519416</v>
       </c>
       <c r="M15">
-        <v>0.9940539466658436</v>
+        <v>0.9940539466658435</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9940539466658435</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9859038466344734</v>
+      </c>
+      <c r="D16">
+        <v>1.017880101365173</v>
+      </c>
+      <c r="E16">
+        <v>0.9888596471693042</v>
+      </c>
+      <c r="F16">
+        <v>0.9859038466344734</v>
+      </c>
+      <c r="G16">
+        <v>1.008540572174369</v>
+      </c>
+      <c r="H16">
+        <v>0.981394061939606</v>
+      </c>
+      <c r="I16">
+        <v>0.9882060459891621</v>
+      </c>
+      <c r="J16">
+        <v>1.017880101365173</v>
+      </c>
+      <c r="K16">
+        <v>1.003369874267239</v>
+      </c>
+      <c r="L16">
+        <v>0.994636860450856</v>
+      </c>
+      <c r="M16">
+        <v>0.995130712545348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9859038466344734</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
@@ -1046,7 +1046,7 @@
         <v>0.9966544266109879</v>
       </c>
       <c r="G15">
-        <v>0.9883209725765859</v>
+        <v>0.988320972576586</v>
       </c>
       <c r="H15">
         <v>1.001258586808111</v>
@@ -1064,7 +1064,7 @@
         <v>0.9936488319519416</v>
       </c>
       <c r="M15">
-        <v>0.9940539466658435</v>
+        <v>0.9940539466658436</v>
       </c>
     </row>
     <row r="16" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9735559999999986</v>
+        <v>0.9859038466344734</v>
       </c>
       <c r="D10">
-        <v>1.055587999999999</v>
+        <v>1.017880101365173</v>
       </c>
       <c r="E10">
-        <v>0.9833439999999984</v>
+        <v>0.9888596471693042</v>
       </c>
       <c r="F10">
-        <v>0.9735559999999986</v>
+        <v>0.9859038466344734</v>
       </c>
       <c r="G10">
-        <v>1.032276</v>
+        <v>1.008540572174369</v>
       </c>
       <c r="H10">
-        <v>0.9423</v>
+        <v>0.981394061939606</v>
       </c>
       <c r="I10">
-        <v>0.9768839999999996</v>
+        <v>0.9882060459891621</v>
       </c>
       <c r="J10">
-        <v>1.055587999999999</v>
+        <v>1.017880101365173</v>
       </c>
       <c r="K10">
-        <v>1.019465999999999</v>
+        <v>1.003369874267239</v>
       </c>
       <c r="L10">
-        <v>0.9965109999999987</v>
+        <v>0.994636860450856</v>
       </c>
       <c r="M10">
-        <v>0.9939913333333328</v>
+        <v>0.995130712545348</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.97</v>
+        <v>0.9977137665264835</v>
       </c>
       <c r="D11">
-        <v>1.08</v>
+        <v>0.9508358715485322</v>
       </c>
       <c r="E11">
-        <v>0.9773874999999994</v>
+        <v>1.005980228825406</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.9977137665264835</v>
       </c>
       <c r="G11">
-        <v>1.045399999999998</v>
+        <v>0.9698483517896725</v>
       </c>
       <c r="H11">
-        <v>0.91</v>
+        <v>1.029504014277771</v>
       </c>
       <c r="I11">
-        <v>0.97</v>
+        <v>1.004760138678962</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>0.9508358715485322</v>
       </c>
       <c r="K11">
-        <v>1.02869375</v>
+        <v>0.9784080501869692</v>
       </c>
       <c r="L11">
-        <v>0.9993468749999999</v>
+        <v>0.9880609083567262</v>
       </c>
       <c r="M11">
-        <v>0.9921312499999996</v>
+        <v>0.9931070619411381</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9801732665344044</v>
+        <v>0.9976010191376431</v>
       </c>
       <c r="D12">
-        <v>1.044343337574397</v>
+        <v>0.9513918949420904</v>
       </c>
       <c r="E12">
-        <v>0.9842803031040035</v>
+        <v>1.005829722068599</v>
       </c>
       <c r="F12">
-        <v>0.9801732665344044</v>
+        <v>0.9976010191376431</v>
       </c>
       <c r="G12">
-        <v>1.023676689510398</v>
+        <v>0.9701422508012693</v>
       </c>
       <c r="H12">
-        <v>0.9470913673216019</v>
+        <v>1.029158336382481</v>
       </c>
       <c r="I12">
-        <v>0.9802400616448033</v>
+        <v>1.004626759878114</v>
       </c>
       <c r="J12">
-        <v>1.044343337574397</v>
+        <v>0.9513918949420904</v>
       </c>
       <c r="K12">
-        <v>1.0143118203392</v>
+        <v>0.9786108085053444</v>
       </c>
       <c r="L12">
-        <v>0.9972425434368025</v>
+        <v>0.9881059138214938</v>
       </c>
       <c r="M12">
-        <v>0.9933008376149348</v>
+        <v>0.9931249972016994</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9945762888340077</v>
+        <v>0.997665206992058</v>
       </c>
       <c r="D13">
-        <v>0.9942774305556739</v>
+        <v>0.9509960216976289</v>
       </c>
       <c r="E13">
-        <v>0.9945914620329442</v>
+        <v>1.005916979274208</v>
       </c>
       <c r="F13">
-        <v>0.9945762888340077</v>
+        <v>0.997665206992058</v>
       </c>
       <c r="G13">
-        <v>0.9942513311365048</v>
+        <v>0.9699099287467844</v>
       </c>
       <c r="H13">
-        <v>0.9943527493820711</v>
+        <v>1.029487495263738</v>
       </c>
       <c r="I13">
-        <v>0.9940393577652945</v>
+        <v>1.004720465747753</v>
       </c>
       <c r="J13">
-        <v>0.9942774305556739</v>
+        <v>0.9509960216976289</v>
       </c>
       <c r="K13">
-        <v>0.9944344462943091</v>
+        <v>0.9784565004859185</v>
       </c>
       <c r="L13">
-        <v>0.9945053675641584</v>
+        <v>0.9880608537389881</v>
       </c>
       <c r="M13">
-        <v>0.994348103284416</v>
+        <v>0.9931160162870284</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9951608369074652</v>
+        <v>0.9735559999999986</v>
       </c>
       <c r="D14">
-        <v>0.9909266503011143</v>
+        <v>1.055587999999999</v>
       </c>
       <c r="E14">
-        <v>0.994926238835801</v>
+        <v>0.9833439999999984</v>
       </c>
       <c r="F14">
-        <v>0.9951608369074652</v>
+        <v>0.9735559999999986</v>
       </c>
       <c r="G14">
-        <v>0.9929793878313541</v>
+        <v>1.032276</v>
       </c>
       <c r="H14">
-        <v>0.9954265536492175</v>
+        <v>0.9423</v>
       </c>
       <c r="I14">
-        <v>0.9949208831756374</v>
+        <v>0.9768839999999996</v>
       </c>
       <c r="J14">
-        <v>0.9909266503011143</v>
+        <v>1.055587999999999</v>
       </c>
       <c r="K14">
-        <v>0.9929264445684576</v>
+        <v>1.019465999999999</v>
       </c>
       <c r="L14">
-        <v>0.9940436407379614</v>
+        <v>0.9965109999999987</v>
       </c>
       <c r="M14">
-        <v>0.9940567584500982</v>
+        <v>0.9939913333333328</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9966544266109879</v>
+        <v>0.97</v>
       </c>
       <c r="D15">
-        <v>0.9842904832345777</v>
+        <v>1.08</v>
       </c>
       <c r="E15">
-        <v>0.9969959913512131</v>
+        <v>0.9773874999999994</v>
       </c>
       <c r="F15">
-        <v>0.9966544266109879</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.988320972576586</v>
+        <v>1.045399999999998</v>
       </c>
       <c r="H15">
-        <v>1.001258586808111</v>
+        <v>0.91</v>
       </c>
       <c r="I15">
-        <v>0.9968032194135852</v>
+        <v>0.97</v>
       </c>
       <c r="J15">
-        <v>0.9842904832345777</v>
+        <v>1.08</v>
       </c>
       <c r="K15">
-        <v>0.9906432372928954</v>
+        <v>1.02869375</v>
       </c>
       <c r="L15">
-        <v>0.9936488319519416</v>
+        <v>0.9993468749999999</v>
       </c>
       <c r="M15">
-        <v>0.9940539466658436</v>
+        <v>0.9921312499999996</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9859038466344734</v>
+        <v>0.9801732665344044</v>
       </c>
       <c r="D16">
-        <v>1.017880101365173</v>
+        <v>1.044343337574397</v>
       </c>
       <c r="E16">
-        <v>0.9888596471693042</v>
+        <v>0.9842803031040035</v>
       </c>
       <c r="F16">
-        <v>0.9859038466344734</v>
+        <v>0.9801732665344044</v>
       </c>
       <c r="G16">
-        <v>1.008540572174369</v>
+        <v>1.023676689510398</v>
       </c>
       <c r="H16">
-        <v>0.981394061939606</v>
+        <v>0.9470913673216019</v>
       </c>
       <c r="I16">
-        <v>0.9882060459891621</v>
+        <v>0.9802400616448033</v>
       </c>
       <c r="J16">
-        <v>1.017880101365173</v>
+        <v>1.044343337574397</v>
       </c>
       <c r="K16">
-        <v>1.003369874267239</v>
+        <v>1.0143118203392</v>
       </c>
       <c r="L16">
-        <v>0.994636860450856</v>
+        <v>0.9972425434368025</v>
       </c>
       <c r="M16">
-        <v>0.995130712545348</v>
+        <v>0.9933008376149348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9945762888340077</v>
+      </c>
+      <c r="D17">
+        <v>0.9942774305556739</v>
+      </c>
+      <c r="E17">
+        <v>0.9945914620329442</v>
+      </c>
+      <c r="F17">
+        <v>0.9945762888340077</v>
+      </c>
+      <c r="G17">
+        <v>0.9942513311365048</v>
+      </c>
+      <c r="H17">
+        <v>0.9943527493820711</v>
+      </c>
+      <c r="I17">
+        <v>0.9940393577652945</v>
+      </c>
+      <c r="J17">
+        <v>0.9942774305556739</v>
+      </c>
+      <c r="K17">
+        <v>0.9944344462943091</v>
+      </c>
+      <c r="L17">
+        <v>0.9945053675641584</v>
+      </c>
+      <c r="M17">
+        <v>0.994348103284416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9951608369074652</v>
+      </c>
+      <c r="D18">
+        <v>0.9909266503011143</v>
+      </c>
+      <c r="E18">
+        <v>0.994926238835801</v>
+      </c>
+      <c r="F18">
+        <v>0.9951608369074652</v>
+      </c>
+      <c r="G18">
+        <v>0.9929793878313541</v>
+      </c>
+      <c r="H18">
+        <v>0.9954265536492175</v>
+      </c>
+      <c r="I18">
+        <v>0.9949208831756374</v>
+      </c>
+      <c r="J18">
+        <v>0.9909266503011143</v>
+      </c>
+      <c r="K18">
+        <v>0.9929264445684576</v>
+      </c>
+      <c r="L18">
+        <v>0.9940436407379614</v>
+      </c>
+      <c r="M18">
+        <v>0.9940567584500982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9966544266109879</v>
+      </c>
+      <c r="D19">
+        <v>0.9842904832345777</v>
+      </c>
+      <c r="E19">
+        <v>0.9969959913512131</v>
+      </c>
+      <c r="F19">
+        <v>0.9966544266109879</v>
+      </c>
+      <c r="G19">
+        <v>0.9883209725765859</v>
+      </c>
+      <c r="H19">
+        <v>1.001258586808111</v>
+      </c>
+      <c r="I19">
+        <v>0.9968032194135852</v>
+      </c>
+      <c r="J19">
+        <v>0.9842904832345777</v>
+      </c>
+      <c r="K19">
+        <v>0.9906432372928954</v>
+      </c>
+      <c r="L19">
+        <v>0.9936488319519416</v>
+      </c>
+      <c r="M19">
+        <v>0.9940539466658435</v>
       </c>
     </row>
   </sheetData>
